--- a/data/Disparo.xlsx
+++ b/data/Disparo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benit\OneDrive\Desktop\Arquivos\Freelas\Disparo WPP + nome lead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benit\OneDrive\Desktop\Arquivos\Freelas\Disparo WPP + nome lead\Disparo - GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B580DB-8297-4183-8E89-4B7439B438AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F35B12-E0F9-4CC5-B790-50C5FD63FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1755" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{6CF09BE4-9925-4CD9-8D6E-155EB58DD152}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -45,74 +45,32 @@
     <t xml:space="preserve">CNPJ </t>
   </si>
   <si>
-    <t xml:space="preserve">RECLAMANTE </t>
-  </si>
-  <si>
     <t xml:space="preserve">SOCIO </t>
   </si>
   <si>
-    <t xml:space="preserve">DATA DE AUDIENCIA </t>
-  </si>
-  <si>
     <t>TELEFONE</t>
   </si>
   <si>
-    <t>11.513.019/0001-58</t>
-  </si>
-  <si>
-    <t>(88) 99919-2522</t>
-  </si>
-  <si>
-    <t>MJ JURIDICO</t>
-  </si>
-  <si>
-    <t>CLF</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>SARA</t>
-  </si>
-  <si>
-    <t>PAULA YASMIN DCR</t>
-  </si>
-  <si>
-    <t>BENITO EFL</t>
-  </si>
-  <si>
-    <t>LAECIO A</t>
-  </si>
-  <si>
-    <t>ICARA A</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>LUCIA DE FAT</t>
-  </si>
-  <si>
-    <t>FCO ELSON</t>
-  </si>
-  <si>
-    <t>(88) 99366-5023; (88) 99919-2522; (88) 99327-6120; (88) 99274-4182</t>
-  </si>
-  <si>
-    <t>(88) 99919-2522; (88) 99327-6120</t>
-  </si>
-  <si>
-    <t>(88) 99366-5023</t>
+    <t>(11) 88888-8888</t>
+  </si>
+  <si>
+    <t>(11) (88) 88888-8888; (11) 88888-8888; (11) 88888-8888</t>
+  </si>
+  <si>
+    <t>Fulano de Tal</t>
+  </si>
+  <si>
+    <t>11.555.001/0001-11</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +89,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,19 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8269AA74-6FBB-4E21-9ACC-F5277AAE4960}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="I11:J11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,92 +480,65 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3">
-        <v>46217</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
-        <v>46130</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>46023</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
-        <v>46368</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
